--- a/autotest/TestData/TestData.xlsx
+++ b/autotest/TestData/TestData.xlsx
@@ -9,23 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="10350" windowWidth="23895" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="10350" windowWidth="23895" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Note" r:id="rId1" sheetId="6"/>
-    <sheet name="config" r:id="rId2" sheetId="1"/>
-    <sheet name="api" r:id="rId3" sheetId="2"/>
-    <sheet name="address" r:id="rId4" sheetId="8"/>
-    <sheet name="buyprocess" r:id="rId5" sheetId="11"/>
-    <sheet name="Sheet1" r:id="rId6" sheetId="15"/>
-    <sheet name="gift" r:id="rId7" sheetId="9"/>
-    <sheet name="quickbuy" r:id="rId8" sheetId="7"/>
-    <sheet name="login" r:id="rId9" sheetId="12"/>
-    <sheet name="giftbackup" r:id="rId10" sheetId="4"/>
-    <sheet name="phonebackup" r:id="rId11" sheetId="3"/>
+    <sheet name="api" r:id="rId2" sheetId="2"/>
+    <sheet name="address" r:id="rId3" sheetId="8"/>
+    <sheet name="buyprocess" r:id="rId4" sheetId="11"/>
+    <sheet name="Sheet1" r:id="rId5" sheetId="15"/>
+    <sheet name="gift" r:id="rId6" sheetId="9"/>
+    <sheet name="quickbuy" r:id="rId7" sheetId="7"/>
+    <sheet name="login" r:id="rId8" sheetId="12"/>
+    <sheet name="giftbackup" r:id="rId9" sheetId="4"/>
+    <sheet name="phonebackup" r:id="rId10" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">api!$A$1:$F$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">api!$B$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -37,67 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-预发布环境：http://release.thy360.com
-21环境：http://172.16.0.21</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-东角山：813395
-清湖：121</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment authorId="0" ref="B2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment authorId="0" ref="B3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A4" shapeId="0">
+    <comment authorId="0" ref="B4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A5" shapeId="0">
+    <comment authorId="0" ref="B5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A6" shapeId="0">
+    <comment authorId="0" ref="B6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A7" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A9" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A10" shapeId="0">
+    <comment authorId="0" ref="B10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A11" shapeId="0">
+    <comment authorId="0" ref="B11" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A12" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -412,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment authorId="0" ref="B14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment authorId="0" ref="B15" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A16" shapeId="0">
+    <comment authorId="0" ref="B16" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A17" shapeId="0">
+    <comment authorId="0" ref="B17" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A18" shapeId="0">
+    <comment authorId="0" ref="B18" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A19" shapeId="0">
+    <comment authorId="0" ref="B19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A20" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A21" shapeId="0">
+    <comment authorId="0" ref="B21" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A22" shapeId="0">
+    <comment authorId="0" ref="B22" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -652,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A23" shapeId="0">
+    <comment authorId="0" ref="B23" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A24" shapeId="0">
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +644,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="271">
   <si>
     <t>api</t>
   </si>
@@ -716,52 +655,9 @@
     <t>contentType</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>loginData</t>
   </si>
   <si>
-    <t>initAddress</t>
-  </si>
-  <si>
-    <t>http://release.thy360.com</t>
-  </si>
-  <si>
-    <t>813395</t>
-  </si>
-  <si>
-    <t>{"contact":"初始化","phone":13714672776,"gender":0,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1111A","village":"东角山","city1":"深圳市","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
-  </si>
-  <si>
-    <t>http://172.16.0.21</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>21</t>
-    </r>
-  </si>
-  <si>
     <t>requestMethod</t>
   </si>
   <si>
@@ -823,9 +719,6 @@
     <t>/ja/paygateway/v1/balance/pay/</t>
   </si>
   <si>
-    <t>/ja/user/v3/od/deal/buy</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -854,9 +747,6 @@
     <t>/ja/user/v3/od/cart/deal/count</t>
   </si>
   <si>
-    <t>/ja/user/v4/discovery/cae/search/record/delete/</t>
-  </si>
-  <si>
     <t>/ja/user/v4/discovery/cae/search/record</t>
   </si>
   <si>
@@ -875,13 +765,7 @@
     <t>/ja/user/v4/discovery/cae/list/attentions?limit=10&amp;page=1</t>
   </si>
   <si>
-    <t>/ja/user/v4/discovery/cae/handpicked/list?limit=10&amp;page=1</t>
-  </si>
-  <si>
     <t>/ja/user/v4/discovery/cae/list/banner</t>
-  </si>
-  <si>
-    <t>/ja/user/v4/discovery/cae/search?limit=10&amp;page=1&amp;keyword=</t>
   </si>
   <si>
     <t>postData</t>
@@ -1558,7 +1442,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷135</t>
+      <t>大爷136</t>
     </r>
     <r>
       <rPr>
@@ -1578,7 +1462,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13514672775</t>
+      <t>13614672775</t>
     </r>
     <r>
       <rPr>
@@ -1631,7 +1515,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷136</t>
+      <t>大爷137</t>
     </r>
     <r>
       <rPr>
@@ -1651,7 +1535,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13614672775</t>
+      <t>13714672775</t>
     </r>
     <r>
       <rPr>
@@ -1704,7 +1588,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷137</t>
+      <t>大爷138</t>
     </r>
     <r>
       <rPr>
@@ -1724,7 +1608,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13714672775</t>
+      <t>13814672775</t>
     </r>
     <r>
       <rPr>
@@ -1777,7 +1661,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷138</t>
+      <t>大爷139</t>
     </r>
     <r>
       <rPr>
@@ -1797,7 +1681,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13814672775</t>
+      <t>13914672775</t>
     </r>
     <r>
       <rPr>
@@ -1850,7 +1734,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷139</t>
+      <t>大爷150</t>
     </r>
     <r>
       <rPr>
@@ -1870,7 +1754,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13914672775</t>
+      <t>15014672775</t>
     </r>
     <r>
       <rPr>
@@ -1923,7 +1807,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷150</t>
+      <t>大爷151</t>
     </r>
     <r>
       <rPr>
@@ -1943,7 +1827,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15014672775</t>
+      <t>15114672775</t>
     </r>
     <r>
       <rPr>
@@ -1996,7 +1880,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷151</t>
+      <t>大爷152</t>
     </r>
     <r>
       <rPr>
@@ -2016,7 +1900,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15114672775</t>
+      <t>15214672775</t>
     </r>
     <r>
       <rPr>
@@ -2069,7 +1953,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷152</t>
+      <t>大爷157</t>
     </r>
     <r>
       <rPr>
@@ -2089,7 +1973,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15214672775</t>
+      <t>15714672775</t>
     </r>
     <r>
       <rPr>
@@ -2142,7 +2026,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷157</t>
+      <t>大爷158</t>
     </r>
     <r>
       <rPr>
@@ -2162,7 +2046,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15714672775</t>
+      <t>15814672775</t>
     </r>
     <r>
       <rPr>
@@ -2182,6 +2066,79 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷159</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15914672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>56</t>
     </r>
     <r>
@@ -2215,7 +2172,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷158</t>
+      <t>大爷182</t>
     </r>
     <r>
       <rPr>
@@ -2235,7 +2192,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15814672775</t>
+      <t>18214672775</t>
     </r>
     <r>
       <rPr>
@@ -2255,17 +2212,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6}</t>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2288,7 +2245,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷159</t>
+      <t>大爷183</t>
     </r>
     <r>
       <rPr>
@@ -2308,7 +2265,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15914672775</t>
+      <t>18314672775</t>
     </r>
     <r>
       <rPr>
@@ -2361,7 +2318,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷182</t>
+      <t>大爷184</t>
     </r>
     <r>
       <rPr>
@@ -2381,7 +2338,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18214672775</t>
+      <t>18414672775</t>
     </r>
     <r>
       <rPr>
@@ -2434,7 +2391,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷183</t>
+      <t>大爷187</t>
     </r>
     <r>
       <rPr>
@@ -2454,7 +2411,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18314672775</t>
+      <t>18714672775</t>
     </r>
     <r>
       <rPr>
@@ -2507,7 +2464,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷184</t>
+      <t>大爷188</t>
     </r>
     <r>
       <rPr>
@@ -2527,7 +2484,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18414672775</t>
+      <t>18814672775</t>
     </r>
     <r>
       <rPr>
@@ -2580,7 +2537,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷187</t>
+      <t>大爷147</t>
     </r>
     <r>
       <rPr>
@@ -2600,7 +2557,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18714672775</t>
+      <t>14714672775</t>
     </r>
     <r>
       <rPr>
@@ -2653,7 +2610,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷188</t>
+      <t>大爷178</t>
     </r>
     <r>
       <rPr>
@@ -2673,7 +2630,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18814672775</t>
+      <t>17814672775</t>
     </r>
     <r>
       <rPr>
@@ -2726,7 +2683,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷147</t>
+      <t>大爷130</t>
     </r>
     <r>
       <rPr>
@@ -2746,7 +2703,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>14714672775</t>
+      <t>13014672775</t>
     </r>
     <r>
       <rPr>
@@ -2799,7 +2756,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷178</t>
+      <t>大爷131</t>
     </r>
     <r>
       <rPr>
@@ -2819,7 +2776,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>17814672775</t>
+      <t>13114672775</t>
     </r>
     <r>
       <rPr>
@@ -2872,7 +2829,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷130</t>
+      <t>大爷132</t>
     </r>
     <r>
       <rPr>
@@ -2892,7 +2849,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13014672775</t>
+      <t>13214672775</t>
     </r>
     <r>
       <rPr>
@@ -2945,7 +2902,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷131</t>
+      <t>大爷155</t>
     </r>
     <r>
       <rPr>
@@ -2965,7 +2922,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13114672775</t>
+      <t>15514672775</t>
     </r>
     <r>
       <rPr>
@@ -3018,7 +2975,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷132</t>
+      <t>大爷156</t>
     </r>
     <r>
       <rPr>
@@ -3038,7 +2995,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13214672775</t>
+      <t>15614672775</t>
     </r>
     <r>
       <rPr>
@@ -3091,7 +3048,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷155</t>
+      <t>大爷185</t>
     </r>
     <r>
       <rPr>
@@ -3111,7 +3068,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15514672775</t>
+      <t>18514672775</t>
     </r>
     <r>
       <rPr>
@@ -3164,7 +3121,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷156</t>
+      <t>大爷186</t>
     </r>
     <r>
       <rPr>
@@ -3184,7 +3141,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15614672775</t>
+      <t>18614672775</t>
     </r>
     <r>
       <rPr>
@@ -3237,7 +3194,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷185</t>
+      <t>大爷145</t>
     </r>
     <r>
       <rPr>
@@ -3257,7 +3214,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18514672775</t>
+      <t>14514672775</t>
     </r>
     <r>
       <rPr>
@@ -3310,7 +3267,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷186</t>
+      <t>大爷175</t>
     </r>
     <r>
       <rPr>
@@ -3330,7 +3287,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18614672775</t>
+      <t>17514672775</t>
     </r>
     <r>
       <rPr>
@@ -3383,7 +3340,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷145</t>
+      <t>大爷176</t>
     </r>
     <r>
       <rPr>
@@ -3403,7 +3360,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>14514672775</t>
+      <t>17614672775</t>
     </r>
     <r>
       <rPr>
@@ -3456,7 +3413,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷175</t>
+      <t>大爷133</t>
     </r>
     <r>
       <rPr>
@@ -3476,7 +3433,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>17514672775</t>
+      <t>13314672775</t>
     </r>
     <r>
       <rPr>
@@ -3529,7 +3486,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷176</t>
+      <t>大爷153</t>
     </r>
     <r>
       <rPr>
@@ -3549,7 +3506,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>17614672775</t>
+      <t>15314672775</t>
     </r>
     <r>
       <rPr>
@@ -3602,7 +3559,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷133</t>
+      <t>大爷180</t>
     </r>
     <r>
       <rPr>
@@ -3622,7 +3579,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>13314672775</t>
+      <t>18014672775</t>
     </r>
     <r>
       <rPr>
@@ -3675,7 +3632,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷153</t>
+      <t>大爷181</t>
     </r>
     <r>
       <rPr>
@@ -3695,7 +3652,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>15314672775</t>
+      <t>18114672775</t>
     </r>
     <r>
       <rPr>
@@ -3748,7 +3705,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷180</t>
+      <t>大爷189</t>
     </r>
     <r>
       <rPr>
@@ -3768,7 +3725,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>18014672775</t>
+      <t>18914672775</t>
     </r>
     <r>
       <rPr>
@@ -3811,6 +3768,1331 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12345678910</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12*34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12+34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AB@CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ab.cd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12.34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AB CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12 34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"   "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>903a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>903A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>903</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aaAA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ABC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"   "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1341467277</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>134146727755</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"contact":"</t>
     </r>
     <r>
@@ -3821,37 +5103,123 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大爷181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18114672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+      <t>aaaaaaaaaa19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壹贰叁肆伍陆柒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"   "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
     </r>
     <r>
       <rPr>
@@ -3884,550 +5252,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷189</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18914672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12345678910</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12*34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12+34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AB@CD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ab.cd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12.34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AB CD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12 34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"   "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":</t>
+      <t>{"contact":</t>
     </r>
     <r>
       <rPr>
@@ -4447,1094 +5272,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>903a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>903A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>903</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aaAA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ABC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>abc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"   "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1341467277</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>134146727755</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aaaaaaaaaa19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>壹贰叁肆伍陆柒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"   "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷148</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14814672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
     </r>
     <r>
       <rPr>
@@ -6720,31 +6458,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>1000</t>
     </r>
     <r>
@@ -6767,31 +6480,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{"phone":"1371467277</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","code":"1234","introducerCode":""}</t>
-    </r>
+    <t>wx:3.9.6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v3/setting/address</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v3/od/cart/order</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v2/regist/code</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6799,23 +6512,163 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>api：放置接口信息</t>
+    <t>/v2/address</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"contact":"初始化","phone":13714672776,"gender":0,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1111A","village":"东角山","city1":"深圳市","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
+    <t>/v2/setting/address/</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>wx:3.9.6</t>
+    <t>/ja/user/v3/od/deal/buy</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/v3/setting/address</t>
+    <t>/ja/user/v4/discovery/cae/search/record/delete/</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷135</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13514672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷148</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14814672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>application/json</t>
@@ -6868,7 +6721,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>/ja/user/v3/od/cart/order</t>
+    <t>/ja/user/v4/discovery/cae/handpicked/list?limit=10&amp;page=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/search?limit=10&amp;page=1&amp;keyword=</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6876,30 +6733,68 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>appId</t>
+    <r>
+      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/v2/regist/code</t>
+    <t>apiName</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"phone":"13714672776","code":"1234","introducerCode":""}</t>
+    <t>删除地址</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/v2/address</t>
+    <t>登录</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/v2/setting/address/</t>
+    <t>增加收货地址</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>获取用户token执行失败！！</t>
-  </si>
-  <si>
-    <t>22064cdc-a757-44a1-98b7-36ffe039ccba</t>
+    <t>获取收货地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8e4c2b6e-50da-4fd1-80b1-9b0dd8c95efa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api sheet：放置接口信息
+address sheet: 放置新增地址接口测试所需数据，包括手机号码段验证，地址各数据验证（特殊字符，空字符，空，长度，字母等）
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0642ac05-a40c-4521-9c63-5ecfcfa6702f</t>
+  </si>
+  <si>
+    <t>e331db7c-c996-4230-b43c-7e072fa94c7e</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -7029,7 +6924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7054,9 +6949,6 @@
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7065,9 +6957,6 @@
     </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7349,7 +7238,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7357,8 +7246,8 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="327.75" r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>258</v>
+      <c r="A1" s="10" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7368,6 +7257,1871 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="14.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="64.125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="60.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="22.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="13.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:G24">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="application/json"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C981" type="list">
+      <formula1>"get,post,put,delete,head,connect,options,trace,patch,move,copy,link,unlink,wrapped,extension-mothed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E1:E1048576" type="list">
+      <formula1>"application/json,application/x-www-form-urlencoded,multipart/form-data,application/xhtml+xml,application/xml,application/atom+xml,application/pdf,application/msword,application/octet-stream,text/html,text/plain,text/xml,image/gif, image/jpeg, image/png"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A39" pane="bottomLeft" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="255.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="102.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="48.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="70.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="45.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="57.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -7389,2012 +9143,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="64.125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="27.375" collapsed="true"/>
-    <col min="2" max="2" style="1" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="57.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="48.875" collapsed="true"/>
-    <col min="5" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row ht="81" r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row ht="81" r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" tooltip="http://release.thy360.com"/>
-    <hyperlink r:id="rId2" ref="A3" tooltip="http://172.16.0.21"/>
-  </hyperlinks>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="60.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="22.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="21.0" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>272</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F24">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="application/json"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B981" type="list">
-      <formula1>"get,post,put,delete,head,connect,options,trace,patch,move,copy,link,unlink,wrapped,extension-mothed"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D1:D1048576" type="list">
-      <formula1>"application/json,application/x-www-form-urlencoded,multipart/form-data,application/xhtml+xml,application/xml,application/atom+xml,application/pdf,application/msword,application/octet-stream,text/html,text/plain,text/xml,image/gif, image/jpeg, image/png"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="255.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="102.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="48.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="70.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="45.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="57.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/autotest/TestData/TestData.xlsx
+++ b/autotest/TestData/TestData.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\autoTest\autotest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="10350" windowWidth="23895" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="Note" r:id="rId1" sheetId="6"/>
-    <sheet name="api" r:id="rId2" sheetId="2"/>
-    <sheet name="address" r:id="rId3" sheetId="8"/>
-    <sheet name="buyprocess" r:id="rId4" sheetId="11"/>
-    <sheet name="Sheet1" r:id="rId5" sheetId="15"/>
-    <sheet name="gift" r:id="rId6" sheetId="9"/>
-    <sheet name="quickbuy" r:id="rId7" sheetId="7"/>
-    <sheet name="login" r:id="rId8" sheetId="12"/>
-    <sheet name="giftbackup" r:id="rId9" sheetId="4"/>
-    <sheet name="phonebackup" r:id="rId10" sheetId="3"/>
+    <sheet name="Note" sheetId="6" r:id="rId1"/>
+    <sheet name="api" sheetId="2" r:id="rId2"/>
+    <sheet name="address" sheetId="8" r:id="rId3"/>
+    <sheet name="buyprocess" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId5"/>
+    <sheet name="gift" sheetId="9" r:id="rId6"/>
+    <sheet name="quickbuy" sheetId="7" r:id="rId7"/>
+    <sheet name="login" sheetId="12" r:id="rId8"/>
+    <sheet name="giftbackup" sheetId="4" r:id="rId9"/>
+    <sheet name="phonebackup" sheetId="3" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">api!$B$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">api!$B$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -33,10 +33,46 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+登录作为主流程测试的前提条件</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E1" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G1" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B13" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B14" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B15" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +680,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="288">
   <si>
     <t>api</t>
   </si>
@@ -6779,30 +6815,123 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>8e4c2b6e-50da-4fd1-80b1-9b0dd8c95efa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api sheet：放置接口信息
-address sheet: 放置新增地址接口测试所需数据，包括手机号码段验证，地址各数据验证（特殊字符，空字符，空，长度，字母等）
+    <t/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行用例时，需要关闭excel表格
+api sheet：放置接口信息
+address sheet: 放置新增地址接口测试所需数据，包括手机号码段验证，地址各数据验证（特殊字符，空字符，空，长度，字母等）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0642ac05-a40c-4521-9c63-5ecfcfa6702f</t>
-  </si>
-  <si>
-    <t>e331db7c-c996-4230-b43c-7e072fa94c7e</t>
-  </si>
-  <si>
-    <t/>
+    <t>业务流</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物流程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类选商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员宝支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请售后</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单备注修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户首页定位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老用户在切换小区中定位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6883,8 +7012,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6909,6 +7053,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6920,50 +7070,59 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6980,10 +7139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -7147,21 +7306,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7178,7 +7337,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -7232,33 +7391,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="145.875" collapsed="true"/>
+    <col min="1" max="1" width="15.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="327.75" r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:26" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>267</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:26" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C14" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C15" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C16" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="11" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Z1"/>
+  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
@@ -7266,9 +7562,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="64.125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -7381,7 +7677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12" r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -7757,34 +8053,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="60.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="20.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="22.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="13.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="21.0" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
@@ -7818,7 +8114,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>242</v>
@@ -7835,7 +8131,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>244</v>
@@ -7852,7 +8148,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -7861,7 +8157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>264</v>
       </c>
@@ -7872,7 +8168,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -7892,7 +8188,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>259</v>
@@ -7912,7 +8208,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>255</v>
@@ -7927,7 +8223,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -7942,7 +8238,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -7957,7 +8253,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -7971,7 +8267,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -7988,7 +8284,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -8002,7 +8298,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -8017,7 +8313,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -8031,7 +8327,7 @@
         <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -8045,7 +8341,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -8059,7 +8355,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -8074,7 +8370,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -8089,7 +8385,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -8104,7 +8400,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -8119,7 +8415,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -8134,7 +8430,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -8149,7 +8445,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -8164,7 +8460,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -8183,37 +8479,37 @@
   </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C981" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C981">
       <formula1>"get,post,put,delete,head,connect,options,trace,patch,move,copy,link,unlink,wrapped,extension-mothed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E1:E1048576" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"application/json,application/x-www-form-urlencoded,multipart/form-data,application/xhtml+xml,application/xml,application/atom+xml,application/pdf,application/msword,application/octet-stream,text/html,text/plain,text/xml,image/gif, image/jpeg, image/png"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="A39" pane="bottomLeft" sqref="A39"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="255.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="255.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -8600,7 +8896,7 @@
         <v>152</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>211</v>
       </c>
@@ -8858,14 +9154,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -8873,13 +9169,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="102.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="102.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -8924,12 +9220,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8937,13 +9233,13 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -8951,13 +9247,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="48.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="48.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9010,13 +9306,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -9024,13 +9320,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="70.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="45.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="70" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9075,14 +9371,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -9090,13 +9386,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="57.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="57.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9117,13 +9413,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
@@ -9131,14 +9427,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="26.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="24.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="20.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="7" max="7" width="10.375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.875" collapsed="true"/>
-    <col min="9" max="9" width="12.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="26.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.375" collapsed="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.625" collapsed="1"/>
+    <col min="13" max="13" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -9227,6 +9523,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/autotest/TestData/TestData.xlsx
+++ b/autotest/TestData/TestData.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
     <sheet name="api" sheetId="2" r:id="rId2"/>
     <sheet name="address" sheetId="8" r:id="rId3"/>
-    <sheet name="buyprocess" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId5"/>
-    <sheet name="gift" sheetId="9" r:id="rId6"/>
-    <sheet name="quickbuy" sheetId="7" r:id="rId7"/>
-    <sheet name="login" sheetId="12" r:id="rId8"/>
-    <sheet name="giftbackup" sheetId="4" r:id="rId9"/>
-    <sheet name="phonebackup" sheetId="3" r:id="rId10"/>
+    <sheet name="changeArea" sheetId="16" r:id="rId4"/>
+    <sheet name="buyprocess" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId6"/>
+    <sheet name="gift" sheetId="9" r:id="rId7"/>
+    <sheet name="quickbuy" sheetId="7" r:id="rId8"/>
+    <sheet name="login" sheetId="12" r:id="rId9"/>
+    <sheet name="giftbackup" sheetId="4" r:id="rId10"/>
+    <sheet name="phonebackup" sheetId="3" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">api!$B$1:$G$24</definedName>
@@ -70,6 +71,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+    <author>admin</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0" shapeId="0">
@@ -675,12 +677,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="B25" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+东角山：%E4%B8%9C%E8%A7%92%E5%B1%B1
+万科城：%E4%B8%87%E7%A7%91%E5%9F%8E
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="298">
   <si>
     <t>api</t>
   </si>
@@ -6516,10 +6544,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>wx:3.9.6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>/v3/setting/address</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6761,10 +6785,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/ja/user/v4/discovery/cae/search?limit=10&amp;page=1&amp;keyword=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>application/json</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6813,9 +6833,6 @@
   <si>
     <t>获取收货地址</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <r>
@@ -6924,6 +6941,57 @@
   </si>
   <si>
     <t>老用户在切换小区中定位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fea95893-4c02-4f5f-9b38-d6292d955f41</t>
+  </si>
+  <si>
+    <t>搜索小区</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx:3.9.8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/search?limit=10&amp;page=1&amp;keyword=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v3/od/region/villages/search/东角山?currentRegion=false&amp;latitude=22.54605355&amp;limit=20&amp;longitude=114.02597366&amp;page=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fea95893-4c02-4f5f-9b38-d6292d955f41</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换小区</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v3/od/zone/lbs/change</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域切换成功</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"自动化测试花园","address":"张大爷的测试","province":"广东省","city":"深圳","latitude":22.410132,"longitude":113.824495,"addressNaviId":18401,"regionId":813395}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"万科城","address":"广东省深圳市龙岗区坂雪岗工业区坂雪岗大道","province":"广东省","city":"深圳","latitude":22.651245,"longitude":114.076476,"addressNaviId":18031,"regionId":2}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"东角山","address":"广东省深圳市南山区","province":"广东省","city":"深圳","latitude":22.408965,"longitude":113.826119,"addressNaviId":18039,"regionId":813395}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx:3.9.6</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6931,7 +6999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7027,6 +7095,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7074,7 +7161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7111,11 +7198,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7397,7 +7490,7 @@
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7409,64 +7502,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:26" s="13" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>269</v>
+    <row r="3" spans="1:26" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
@@ -7477,68 +7570,68 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B9" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C14" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C15" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7553,6 +7646,116 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.375" collapsed="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.625" collapsed="1"/>
+    <col min="13" max="13" width="12" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -8062,16 +8265,17 @@
   <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="124.75" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="20.5" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="44.75" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22.875" style="1" customWidth="1" collapsed="1"/>
@@ -8082,7 +8286,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -8100,24 +8304,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -8131,10 +8335,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -8148,7 +8352,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -8159,16 +8363,16 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -8179,19 +8383,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>233</v>
@@ -8199,19 +8403,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
@@ -8219,11 +8423,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -8238,7 +8442,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -8253,7 +8457,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -8267,7 +8471,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -8278,13 +8482,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -8298,7 +8502,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -8313,7 +8517,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -8324,10 +8528,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -8341,7 +8545,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -8350,12 +8554,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -8364,13 +8568,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -8379,13 +8583,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -8394,28 +8598,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -8424,13 +8628,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -8439,13 +8643,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -8454,13 +8658,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -8468,6 +8672,82 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D38"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:G24">
@@ -8497,8 +8777,8 @@
   <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8522,15 +8802,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
@@ -8858,7 +9138,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>31</v>
@@ -9160,6 +9440,60 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="219.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -9204,7 +9538,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>238</v>
@@ -9224,7 +9558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9237,7 +9571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -9310,7 +9644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -9376,7 +9710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -9405,120 +9739,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="26.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.375" collapsed="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.625" collapsed="1"/>
-    <col min="13" max="13" width="12" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/autotest/TestData/TestData.xlsx
+++ b/autotest/TestData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="304">
   <si>
     <t>api</t>
   </si>
@@ -6835,19 +6835,282 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>业务流</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务单元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物流程</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类选商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付成功</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员宝支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消订单</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请售后</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单备注修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户首页定位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单模块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老用户在切换小区中定位</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fea95893-4c02-4f5f-9b38-d6292d955f41</t>
+  </si>
+  <si>
+    <t>搜索小区</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx:3.9.8</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v4/discovery/cae/search?limit=10&amp;page=1&amp;keyword=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v3/od/region/villages/search/东角山?currentRegion=false&amp;latitude=22.54605355&amp;limit=20&amp;longitude=114.02597366&amp;page=1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fea95893-4c02-4f5f-9b38-d6292d955f41</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换小区</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v3/od/zone/lbs/change</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域切换成功</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"自动化测试花园","address":"张大爷的测试","province":"广东省","city":"深圳","latitude":22.410132,"longitude":113.824495,"addressNaviId":18401,"regionId":813395}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"万科城","address":"广东省深圳市龙岗区坂雪岗工业区坂雪岗大道","province":"广东省","city":"深圳","latitude":22.651245,"longitude":114.076476,"addressNaviId":18031,"regionId":2}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"name":"东角山","address":"广东省深圳市南山区","province":"广东省","city":"深圳","latitude":22.408965,"longitude":113.826119,"addressNaviId":18039,"regionId":813395}</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx:3.9.6</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取小区列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ja/user/v3/od/my/regions</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>运行用例时，需要关闭excel表格
+      <t>1.环境配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Software version:
+TestNG </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.9.5.201505251947</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Eclipse Version: Neon.3 Release (4.7.0), Build id: 20170620-1800
+JRE: 1.8.0
+Other jars：please refer to pom.xml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.用例编写步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a.在excel表格api sheet添加接口信息
+b.在ApiEnum.java 添加接口信息
+c.如果有测试数据，在excel表格添加相应sheet
+d.如果有测试数据，在FileEnum.java添加数据sheet常量
+e.如果有测试数据，在ApiTestDataPro.java添加数据提供@DataProvider
+f.在ApiTest.java添加测试用例@Test
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.excel数据说明</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 api sheet：放置接口信息
-address sheet: 放置新增地址接口测试所需数据，包括手机号码段验证，地址各数据验证（特殊字符，空字符，空，长度，字母等）</t>
+address sheet: 放置新增地址接口测试所需数据，包括手机号码段验证，地址各数据验证（特殊字符，空字符，空，长度，字母等）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.other issue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a. testNG version bug: https://github.com/cbeust/testng-eclipse/issues/91(java.net.SocketException: Software caused connection abort: socket write error)
+b. 运行用例时，需要关闭excel表格</t>
     </r>
     <r>
       <rPr>
@@ -6864,142 +7127,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>业务流</t>
+    <t>切换不同社区</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>业务单元</t>
+    <t>切换相同社区不同花园</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>购物流程</t>
+    <t>切换到中央仓库</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>定位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类选商品</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增地址</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单确认</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付模块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付失败</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员宝支付</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信支付</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消订单</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请售后</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单备注修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录模块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新用户首页定位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单模块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老用户在切换小区中定位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fea95893-4c02-4f5f-9b38-d6292d955f41</t>
-  </si>
-  <si>
-    <t>搜索小区</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx:3.9.8</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ja/user/v4/discovery/cae/search?limit=10&amp;page=1&amp;keyword=</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ja/user/v3/od/region/villages/search/东角山?currentRegion=false&amp;latitude=22.54605355&amp;limit=20&amp;longitude=114.02597366&amp;page=1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fea95893-4c02-4f5f-9b38-d6292d955f41</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换小区</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ja/user/v3/od/zone/lbs/change</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域切换成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"自动化测试花园","address":"张大爷的测试","province":"广东省","city":"深圳","latitude":22.410132,"longitude":113.824495,"addressNaviId":18401,"regionId":813395}</t>
+    <t>{"name":"中央仓库","address":"","province":"广东省","city":"深圳市","latitude":0,"longitude":0,"addressNaviId":0,"regionId":4}</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"万科城","address":"广东省深圳市龙岗区坂雪岗工业区坂雪岗大道","province":"广东省","city":"深圳","latitude":22.651245,"longitude":114.076476,"addressNaviId":18031,"regionId":2}</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"name":"东角山","address":"广东省深圳市南山区","province":"广东省","city":"深圳","latitude":22.408965,"longitude":113.826119,"addressNaviId":18039,"regionId":813395}</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>wx:3.9.6</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7114,6 +7262,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7161,7 +7318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7201,14 +7358,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7488,10 +7648,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7501,76 +7661,87 @@
     <col min="3" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="173.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-    </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:26" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
-        <v>270</v>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
@@ -7580,35 +7751,35 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B13" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C14" s="11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C15" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="C16" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
@@ -7617,21 +7788,26 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="C18" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
+        <v>282</v>
+      </c>
       <c r="C19" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -8268,8 +8444,8 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8318,7 +8494,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>241</v>
@@ -8335,7 +8511,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>243</v>
@@ -8352,7 +8528,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -8372,7 +8548,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -8392,7 +8568,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>257</v>
@@ -8412,7 +8588,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>254</v>
@@ -8427,7 +8603,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -8442,7 +8618,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -8457,7 +8633,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -8471,7 +8647,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -8488,7 +8664,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -8502,7 +8678,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -8517,7 +8693,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -8531,7 +8707,7 @@
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -8545,7 +8721,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -8559,7 +8735,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -8574,7 +8750,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -8589,7 +8765,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -8604,13 +8780,13 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -8619,7 +8795,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -8634,7 +8810,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -8649,7 +8825,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -8660,11 +8836,11 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -8675,46 +8851,63 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D27"/>
+      <c r="A27" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D28"/>
@@ -9441,15 +9634,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="219.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="181.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -9463,27 +9657,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>294</v>
+      <c r="A2" s="14" t="s">
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>295</v>
+      <c r="A3" s="14" t="s">
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/autotest/TestData/TestData.xlsx
+++ b/autotest/TestData/TestData.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\autoTest\autotest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowHeight="10350" windowWidth="23895" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Note" sheetId="6" r:id="rId1"/>
-    <sheet name="api" sheetId="2" r:id="rId2"/>
-    <sheet name="address" sheetId="8" r:id="rId3"/>
-    <sheet name="changeArea" sheetId="16" r:id="rId4"/>
-    <sheet name="buyprocess" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId6"/>
-    <sheet name="gift" sheetId="9" r:id="rId7"/>
-    <sheet name="quickbuy" sheetId="7" r:id="rId8"/>
-    <sheet name="login" sheetId="12" r:id="rId9"/>
-    <sheet name="giftbackup" sheetId="4" r:id="rId10"/>
-    <sheet name="phonebackup" sheetId="3" r:id="rId11"/>
+    <sheet name="Note" r:id="rId1" sheetId="6"/>
+    <sheet name="api" r:id="rId2" sheetId="2"/>
+    <sheet name="address" r:id="rId3" sheetId="8"/>
+    <sheet name="changeArea" r:id="rId4" sheetId="16"/>
+    <sheet name="buyprocess" r:id="rId5" sheetId="11"/>
+    <sheet name="Sheet1" r:id="rId6" sheetId="15"/>
+    <sheet name="gift" r:id="rId7" sheetId="9"/>
+    <sheet name="quickbuy" r:id="rId8" sheetId="7"/>
+    <sheet name="login" r:id="rId9" sheetId="12"/>
+    <sheet name="giftbackup" r:id="rId10" sheetId="4"/>
+    <sheet name="phonebackup" r:id="rId11" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">api!$B$1:$G$24</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">api!$B$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -37,7 +37,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B11" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B15" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B16" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B17" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B18" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B21" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -605,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B22" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -629,7 +629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B23" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -677,7 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="1" shapeId="0">
+    <comment authorId="1" ref="B25" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="306">
   <si>
     <t>api</t>
   </si>
@@ -7142,11 +7142,18 @@
     <t>{"name":"中央仓库","address":"","province":"广东省","city":"深圳市","latitude":0,"longitude":0,"addressNaviId":0,"regionId":4}</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>40fa6da3-721d-4a94-9544-ad029fa7df6d</t>
+  </si>
+  <si>
+    <t>9952425f-1479-4607-9793-7e946b03fdb1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7314,68 +7321,68 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7392,10 +7399,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -7559,21 +7566,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7590,7 +7597,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -7644,11 +7651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:Z1"/>
@@ -7656,12 +7663,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="322.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="322.5" r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>299</v>
       </c>
@@ -7691,12 +7698,12 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="2" s="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" customHeight="1" ht="21.75" r="3" s="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>264</v>
       </c>
@@ -7815,15 +7822,15 @@
     <mergeCell ref="A1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
@@ -7831,14 +7838,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.375" collapsed="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.625" collapsed="1"/>
-    <col min="13" max="13" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="26.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="7" max="7" width="10.375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="9" max="9" width="12.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -7927,13 +7934,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
@@ -7941,9 +7948,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="64.125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -8056,7 +8063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="12" r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
@@ -8432,35 +8439,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A27" pane="bottomLeft" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="124.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="124.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="22.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="13.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>259</v>
       </c>
@@ -8494,7 +8501,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>241</v>
@@ -8511,7 +8518,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>243</v>
@@ -8528,7 +8535,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
@@ -8537,7 +8544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="18" r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>262</v>
       </c>
@@ -8548,7 +8555,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
@@ -8568,7 +8575,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>257</v>
@@ -8588,7 +8595,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>254</v>
@@ -8603,7 +8610,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -8618,7 +8625,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>7</v>
@@ -8633,7 +8640,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>7</v>
@@ -8647,7 +8654,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>7</v>
@@ -8664,7 +8671,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>7</v>
@@ -8678,7 +8685,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -8693,7 +8700,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -8707,7 +8714,7 @@
         <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -8721,7 +8728,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>7</v>
@@ -8735,7 +8742,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>7</v>
@@ -8750,7 +8757,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>7</v>
@@ -8765,7 +8772,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -8780,7 +8787,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>7</v>
@@ -8795,7 +8802,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>7</v>
@@ -8810,7 +8817,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>7</v>
@@ -8825,7 +8832,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>7</v>
@@ -8840,7 +8847,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>7</v>
@@ -8860,7 +8867,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
@@ -8879,8 +8886,8 @@
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>289</v>
+      <c r="D26" t="s">
+        <v>305</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
@@ -8899,8 +8906,8 @@
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>289</v>
+      <c r="D27" t="s">
+        <v>305</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
@@ -8910,37 +8917,59 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D28"/>
+      <c r="D28" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D29"/>
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D31"/>
+      <c r="D31" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D32"/>
+      <c r="D32" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D33"/>
+      <c r="D33" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D34"/>
+      <c r="D34" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D35"/>
+      <c r="D35" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D36"/>
+      <c r="D36" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D37"/>
+      <c r="D37" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D38"/>
+      <c r="D38" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:G24">
@@ -8952,37 +8981,37 @@
   </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C981">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C981" type="list">
       <formula1>"get,post,put,delete,head,connect,options,trace,patch,move,copy,link,unlink,wrapped,extension-mothed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E1:E1048576" type="list">
       <formula1>"application/json,application/x-www-form-urlencoded,multipart/form-data,application/xhtml+xml,application/xml,application/atom+xml,application/pdf,application/msword,application/octet-stream,text/html,text/plain,text/xml,image/gif, image/jpeg, image/png"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="255.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="255.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9369,7 +9398,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="15" r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>211</v>
       </c>
@@ -9627,25 +9656,25 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A14" pane="bottomLeft" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="181.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="181.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.375" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9690,14 +9719,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -9705,13 +9734,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="102.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="102.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9756,12 +9785,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9769,13 +9798,13 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -9783,13 +9812,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="48.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9842,13 +9871,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
@@ -9856,13 +9885,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="70.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="45.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9907,14 +9936,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -9922,13 +9951,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="57.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9949,6 +9978,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>